--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.087557666666667</v>
+        <v>1.003565333333333</v>
       </c>
       <c r="H2">
-        <v>6.262673</v>
+        <v>3.010696</v>
       </c>
       <c r="I2">
-        <v>0.03145006648799806</v>
+        <v>0.01537020623156171</v>
       </c>
       <c r="J2">
-        <v>0.03145006648799806</v>
+        <v>0.01537020623156171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N2">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q2">
-        <v>18.43104385558977</v>
+        <v>2.333298097566222</v>
       </c>
       <c r="R2">
-        <v>165.879394700308</v>
+        <v>20.999682878096</v>
       </c>
       <c r="S2">
-        <v>0.005643575437148515</v>
+        <v>0.0008369534976309645</v>
       </c>
       <c r="T2">
-        <v>0.005643575437148515</v>
+        <v>0.0008369534976309642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.087557666666667</v>
+        <v>1.003565333333333</v>
       </c>
       <c r="H3">
-        <v>6.262673</v>
+        <v>3.010696</v>
       </c>
       <c r="I3">
-        <v>0.03145006648799806</v>
+        <v>0.01537020623156171</v>
       </c>
       <c r="J3">
-        <v>0.03145006648799806</v>
+        <v>0.01537020623156171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q3">
-        <v>40.36978372022989</v>
+        <v>19.40723176307645</v>
       </c>
       <c r="R3">
-        <v>363.328053482069</v>
+        <v>174.665085867688</v>
       </c>
       <c r="S3">
-        <v>0.01236120545269014</v>
+        <v>0.006961369625417347</v>
       </c>
       <c r="T3">
-        <v>0.01236120545269014</v>
+        <v>0.006961369625417345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.087557666666667</v>
+        <v>1.003565333333333</v>
       </c>
       <c r="H4">
-        <v>6.262673</v>
+        <v>3.010696</v>
       </c>
       <c r="I4">
-        <v>0.03145006648799806</v>
+        <v>0.01537020623156171</v>
       </c>
       <c r="J4">
-        <v>0.03145006648799806</v>
+        <v>0.01537020623156171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q4">
-        <v>43.91022167957678</v>
+        <v>21.10924979953689</v>
       </c>
       <c r="R4">
-        <v>395.191995116191</v>
+        <v>189.983248195832</v>
       </c>
       <c r="S4">
-        <v>0.01344528559815941</v>
+        <v>0.007571883108513403</v>
       </c>
       <c r="T4">
-        <v>0.01344528559815941</v>
+        <v>0.007571883108513401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>182.082203</v>
       </c>
       <c r="I5">
-        <v>0.914385501307694</v>
+        <v>0.9295661239816587</v>
       </c>
       <c r="J5">
-        <v>0.914385501307694</v>
+        <v>0.9295661239816587</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N5">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q5">
-        <v>535.8678425035763</v>
+        <v>141.1142333402531</v>
       </c>
       <c r="R5">
-        <v>4822.810582532187</v>
+        <v>1270.028100062278</v>
       </c>
       <c r="S5">
-        <v>0.1640824370668386</v>
+        <v>0.05061764344762848</v>
       </c>
       <c r="T5">
-        <v>0.1640824370668386</v>
+        <v>0.05061764344762847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>182.082203</v>
       </c>
       <c r="I6">
-        <v>0.914385501307694</v>
+        <v>0.9295661239816587</v>
       </c>
       <c r="J6">
-        <v>0.914385501307694</v>
+        <v>0.9295661239816587</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q6">
         <v>1173.719137884573</v>
@@ -818,10 +818,10 @@
         <v>10563.47224096116</v>
       </c>
       <c r="S6">
-        <v>0.359392151013063</v>
+        <v>0.421012788170335</v>
       </c>
       <c r="T6">
-        <v>0.359392151013063</v>
+        <v>0.4210127881703349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>182.082203</v>
       </c>
       <c r="I7">
-        <v>0.914385501307694</v>
+        <v>0.9295661239816587</v>
       </c>
       <c r="J7">
-        <v>0.914385501307694</v>
+        <v>0.9295661239816587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q7">
         <v>1276.654536750633</v>
@@ -880,10 +880,10 @@
         <v>11489.8908307557</v>
       </c>
       <c r="S7">
-        <v>0.3909109132277924</v>
+        <v>0.4579356923636954</v>
       </c>
       <c r="T7">
-        <v>0.3909109132277924</v>
+        <v>0.4579356923636953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.7858</v>
       </c>
       <c r="I8">
-        <v>0.0541644322043079</v>
+        <v>0.05506366978677964</v>
       </c>
       <c r="J8">
-        <v>0.05416443220430789</v>
+        <v>0.05506366978677963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N8">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q8">
-        <v>31.74260460631111</v>
+        <v>8.359026158977779</v>
       </c>
       <c r="R8">
-        <v>285.6834414568</v>
+        <v>75.2312354308</v>
       </c>
       <c r="S8">
-        <v>0.009719567978400989</v>
+        <v>0.002998380784625235</v>
       </c>
       <c r="T8">
-        <v>0.009719567978400987</v>
+        <v>0.002998380784625234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.7858</v>
       </c>
       <c r="I9">
-        <v>0.0541644322043079</v>
+        <v>0.05506366978677964</v>
       </c>
       <c r="J9">
-        <v>0.05416443220430789</v>
+        <v>0.05506366978677963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q9">
         <v>69.52628905415555</v>
@@ -1004,10 +1004,10 @@
         <v>625.7366014874</v>
       </c>
       <c r="S9">
-        <v>0.02128891126386853</v>
+        <v>0.02493906409209911</v>
       </c>
       <c r="T9">
-        <v>0.02128891126386852</v>
+        <v>0.0249390640920991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.7858</v>
       </c>
       <c r="I10">
-        <v>0.0541644322043079</v>
+        <v>0.05506366978677964</v>
       </c>
       <c r="J10">
-        <v>0.05416443220430789</v>
+        <v>0.05506366978677963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q10">
         <v>75.62375825651111</v>
@@ -1066,10 +1066,10 @@
         <v>680.6138243086</v>
       </c>
       <c r="S10">
-        <v>0.02315595296203838</v>
+        <v>0.0271262249100553</v>
       </c>
       <c r="T10">
-        <v>0.02315595296203838</v>
+        <v>0.0271262249100553</v>
       </c>
     </row>
   </sheetData>
